--- a/Musa Thesis/STRAW BEERY BUGDET .xlsx
+++ b/Musa Thesis/STRAW BEERY BUGDET .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/AU AV/Collaboration/Musa, N/Ms Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/NM Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1704" documentId="8_{46EBA254-EADB-45E7-A299-52278BA7F6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726E688F-3BDB-468C-886E-0B776D71167D}"/>
+  <xr:revisionPtr revIDLastSave="1706" documentId="8_{46EBA254-EADB-45E7-A299-52278BA7F6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6103E0DB-CB99-4ED1-9C3E-08E1CF162057}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{6CCDAF75-EEA0-43E5-9BCA-AAA02E992321}"/>
+    <workbookView minimized="1" xWindow="-20130" yWindow="450" windowWidth="38220" windowHeight="14775" xr2:uid="{6CCDAF75-EEA0-43E5-9BCA-AAA02E992321}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="1" r:id="rId1"/>
@@ -784,8 +784,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>736022</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -800,8 +800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3630511" y="6205686"/>
-          <a:ext cx="3239034" cy="894769"/>
+          <a:off x="3630511" y="6220118"/>
+          <a:ext cx="3239034" cy="966927"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,7 +1413,7 @@
   <dimension ref="B1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
